--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E941E5-1B1D-4F32-9559-7D070A8793D4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DBEF34-2C10-4D39-B31A-17711B492BD6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44302.439120138886" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44489.407188425925" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,18 +1479,17 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,10 +1564,10 @@
         <v>196253.9499999999</v>
       </c>
       <c r="J3" s="3">
-        <v>223089.24999999994</v>
+        <v>227689.24999999994</v>
       </c>
       <c r="K3" s="3">
-        <v>1687158.35</v>
+        <v>1691758.35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1635,10 +1634,10 @@
         <v>93385.04</v>
       </c>
       <c r="J5" s="3">
-        <v>352041.0099999996</v>
+        <v>351760.5099999996</v>
       </c>
       <c r="K5" s="3">
-        <v>3767505.1399999992</v>
+        <v>3767224.6399999992</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1670,10 +1669,10 @@
         <v>1864.8</v>
       </c>
       <c r="J6" s="3">
-        <v>140359.47000000012</v>
+        <v>838579.85000000102</v>
       </c>
       <c r="K6" s="3">
-        <v>3993027.2800000003</v>
+        <v>4691247.6600000011</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1704,9 +1703,11 @@
       <c r="I7" s="3">
         <v>1340.79</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>1285676.0800000024</v>
+      </c>
       <c r="K7" s="3">
-        <v>3378860.8000000012</v>
+        <v>4664536.8800000036</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1737,9 +1738,11 @@
       <c r="I8" s="3">
         <v>5951.23</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>1302608.9299999988</v>
+      </c>
       <c r="K8" s="3">
-        <v>4035615.11</v>
+        <v>5338224.0399999991</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1770,9 +1773,11 @@
       <c r="I9" s="3">
         <v>89928.069999999934</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>629554.16000000131</v>
+      </c>
       <c r="K9" s="3">
-        <v>2478500.2699999996</v>
+        <v>3108054.4300000006</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1803,9 +1808,11 @@
       <c r="I10" s="3">
         <v>177390.56999999957</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>1571488.3699999994</v>
+      </c>
       <c r="K10" s="3">
-        <v>1904451.6999999995</v>
+        <v>3475940.0699999989</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1836,9 +1843,11 @@
       <c r="I11" s="3">
         <v>89687.4</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>2067725.87</v>
+      </c>
       <c r="K11" s="3">
-        <v>1450975.77</v>
+        <v>3518701.64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1867,11 +1876,13 @@
         <v>342398.2099999999</v>
       </c>
       <c r="I12" s="3">
-        <v>255270.49999999997</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>255370.49999999997</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1609419.7100000014</v>
+      </c>
       <c r="K12" s="3">
-        <v>1424096.0300000003</v>
+        <v>3033615.7400000016</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1966,13 +1977,13 @@
         <v>6282347.0600000005</v>
       </c>
       <c r="I15" s="3">
-        <v>1824492.6599999995</v>
+        <v>1824592.6599999995</v>
       </c>
       <c r="J15" s="3">
-        <v>987252.44999999937</v>
+        <v>10156265.450000003</v>
       </c>
       <c r="K15" s="3">
-        <v>29876895.309999984</v>
+        <v>39046008.309999995</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DBEF34-2C10-4D39-B31A-17711B492BD6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA26DA2-3546-4BCE-9713-54B36D6F425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Persey OLAP.odc" keepAlive="1" name="Persey Travel Документы" type="5" refreshedVersion="6" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Persey OLAP.odc" keepAlive="1" name="Persey Travel Документы" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\persey;Initial Catalog=Persey Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Доход</t>
   </si>
@@ -107,6 +118,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -677,12 +691,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44489.407188425925" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.958858680555" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="[Дата].[Год].&amp;[2013]" c="2013"/>
         <s v="[Дата].[Год].&amp;[2014]" c="2014"/>
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
@@ -692,6 +706,7 @@
         <s v="[Дата].[Год].&amp;[2019]" c="2019"/>
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
+        <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -913,12 +928,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:K15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:L15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -928,6 +943,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -994,7 +1010,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="10">
+  <colItems count="11">
     <i>
       <x/>
     </i>
@@ -1021,6 +1037,9 @@
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -1468,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
@@ -1479,8 +1498,9 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
@@ -1488,11 +1508,13 @@
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1532,10 +1554,13 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1567,10 +1592,13 @@
         <v>227689.24999999994</v>
       </c>
       <c r="K3" s="3">
-        <v>1691758.35</v>
+        <v>189578.12</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1881336.47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1601,11 +1629,12 @@
       <c r="J4" s="3">
         <v>271762.71999999968</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>1807376.0899999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1634,13 +1663,14 @@
         <v>93385.04</v>
       </c>
       <c r="J5" s="3">
-        <v>351760.5099999996</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3767224.6399999992</v>
+        <v>351860.5099999996</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>3767324.6399999987</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1671,11 +1701,12 @@
       <c r="J6" s="3">
         <v>838579.85000000102</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>4691247.6600000011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1706,11 +1737,12 @@
       <c r="J7" s="3">
         <v>1285676.0800000024</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>4664536.8800000036</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1741,11 +1773,12 @@
       <c r="J8" s="3">
         <v>1302608.9299999988</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>5338224.0399999991</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1786,7 @@
         <v>101790.14000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>121030.58999999975</v>
+        <v>121030.58999999976</v>
       </c>
       <c r="D9" s="3">
         <v>210044.29</v>
@@ -1774,13 +1807,14 @@
         <v>89928.069999999934</v>
       </c>
       <c r="J9" s="3">
-        <v>629554.16000000131</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3108054.4300000006</v>
+        <v>634123.12000000128</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>3112623.3900000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1809,13 +1843,14 @@
         <v>177390.56999999957</v>
       </c>
       <c r="J10" s="3">
-        <v>1571488.3699999994</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3475940.0699999989</v>
+        <v>1604110.4199999995</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>3508562.1199999992</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1844,13 +1879,14 @@
         <v>89687.4</v>
       </c>
       <c r="J11" s="3">
-        <v>2067725.87</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3518701.64</v>
+        <v>2059846.27</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>3510822.0399999996</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1879,13 +1915,14 @@
         <v>255370.49999999997</v>
       </c>
       <c r="J12" s="3">
-        <v>1609419.7100000014</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3033615.7400000016</v>
+        <v>2540984.1399999987</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>3965180.169999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1913,12 +1950,15 @@
       <c r="I13" s="3">
         <v>258247.47000000009</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>1170128.04</v>
+      <c r="J13" s="3">
+        <v>1645113.3800000006</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>2815241.4200000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1946,12 +1986,15 @@
       <c r="I14" s="3">
         <v>501668.53</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>2779200.7300000004</v>
+      <c r="J14" s="3">
+        <v>1752742.2200000014</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>4531942.950000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1980,10 +2023,13 @@
         <v>1824592.6599999995</v>
       </c>
       <c r="J15" s="3">
-        <v>10156265.450000003</v>
+        <v>14515096.890000001</v>
       </c>
       <c r="K15" s="3">
-        <v>39046008.309999995</v>
+        <v>189578.12</v>
+      </c>
+      <c r="L15" s="3">
+        <v>43594417.869999997</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA26DA2-3546-4BCE-9713-54B36D6F425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB5DE9-C189-4398-BC72-AC5B145791A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.958858680555" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.889775115742" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,19 +1499,19 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>265394.87</v>
       </c>
       <c r="H3" s="3">
-        <v>544920.56000000029</v>
+        <v>544920.56000000006</v>
       </c>
       <c r="I3" s="3">
         <v>196253.9499999999</v>
@@ -1592,10 +1592,10 @@
         <v>227689.24999999994</v>
       </c>
       <c r="K3" s="3">
-        <v>189578.12</v>
+        <v>1536273.2600000051</v>
       </c>
       <c r="L3" s="3">
-        <v>1881336.47</v>
+        <v>3228031.6100000055</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1621,17 +1621,19 @@
         <v>129282.51000000004</v>
       </c>
       <c r="H4" s="3">
-        <v>135337.15</v>
+        <v>135337.15000000002</v>
       </c>
       <c r="I4" s="3">
         <v>153504.30999999994</v>
       </c>
       <c r="J4" s="3">
-        <v>271762.71999999968</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>271762.71999999962</v>
+      </c>
+      <c r="K4" s="3">
+        <v>937540.26999999967</v>
+      </c>
       <c r="L4" s="3">
-        <v>1807376.0899999996</v>
+        <v>2744916.3599999989</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1665,9 +1667,11 @@
       <c r="J5" s="3">
         <v>351860.5099999996</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>51225.56</v>
+      </c>
       <c r="L5" s="3">
-        <v>3767324.6399999987</v>
+        <v>3818550.1999999988</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1701,9 +1705,11 @@
       <c r="J6" s="3">
         <v>838579.85000000102</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>387359.18000000017</v>
+      </c>
       <c r="L6" s="3">
-        <v>4691247.6600000011</v>
+        <v>5078606.8400000008</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1737,9 +1743,11 @@
       <c r="J7" s="3">
         <v>1285676.0800000024</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>1467315.4999999998</v>
+      </c>
       <c r="L7" s="3">
-        <v>4664536.8800000036</v>
+        <v>6131852.3800000036</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1771,11 +1779,13 @@
         <v>5951.23</v>
       </c>
       <c r="J8" s="3">
-        <v>1302608.9299999988</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>1304299.7499999988</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4836249.4000000004</v>
+      </c>
       <c r="L8" s="3">
-        <v>5338224.0399999991</v>
+        <v>10176164.26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,11 +1817,11 @@
         <v>89928.069999999934</v>
       </c>
       <c r="J9" s="3">
-        <v>634123.12000000128</v>
+        <v>634206.12000000139</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>3112623.3900000006</v>
+        <v>3112706.3900000011</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1819,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>77033.540000000008</v>
+        <v>77033.539999999994</v>
       </c>
       <c r="C10" s="3">
         <v>122603.32000000007</v>
@@ -1843,11 +1853,11 @@
         <v>177390.56999999957</v>
       </c>
       <c r="J10" s="3">
-        <v>1604110.4199999995</v>
+        <v>1605315.1999999995</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>3508562.1199999992</v>
+        <v>3509766.899999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1879,11 +1889,11 @@
         <v>89687.4</v>
       </c>
       <c r="J11" s="3">
-        <v>2059846.27</v>
+        <v>2059083.27</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <v>3510822.0399999996</v>
+        <v>3510059.0399999996</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1915,11 +1925,11 @@
         <v>255370.49999999997</v>
       </c>
       <c r="J12" s="3">
-        <v>2540984.1399999987</v>
+        <v>2530450.1399999987</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>3965180.169999999</v>
+        <v>3954646.169999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1948,14 +1958,14 @@
         <v>116878.38999999994</v>
       </c>
       <c r="I13" s="3">
-        <v>258247.47000000009</v>
+        <v>258447.47000000009</v>
       </c>
       <c r="J13" s="3">
-        <v>1645113.3800000006</v>
+        <v>1617493.3800000006</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>2815241.4200000009</v>
+        <v>2787821.4200000009</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1987,11 +1997,11 @@
         <v>501668.53</v>
       </c>
       <c r="J14" s="3">
-        <v>1752742.2200000014</v>
+        <v>1708963.0799999996</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3">
-        <v>4531942.950000002</v>
+        <v>4488163.8099999996</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1999,37 +2009,37 @@
         <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>952530.69</v>
+        <v>952530.68999999983</v>
       </c>
       <c r="C15" s="3">
         <v>1640392.67</v>
       </c>
       <c r="D15" s="3">
-        <v>4127277.2600000007</v>
+        <v>4127277.2600000002</v>
       </c>
       <c r="E15" s="3">
-        <v>5274287.54</v>
+        <v>5274287.5399999991</v>
       </c>
       <c r="F15" s="3">
         <v>3434459.3699999992</v>
       </c>
       <c r="G15" s="3">
-        <v>5353855.6099999994</v>
+        <v>5353855.6100000003</v>
       </c>
       <c r="H15" s="3">
-        <v>6282347.0600000005</v>
+        <v>6282347.0599999987</v>
       </c>
       <c r="I15" s="3">
-        <v>1824592.6599999995</v>
+        <v>1824792.6599999995</v>
       </c>
       <c r="J15" s="3">
-        <v>14515096.890000001</v>
+        <v>14435379.35</v>
       </c>
       <c r="K15" s="3">
-        <v>189578.12</v>
+        <v>9215963.1700000055</v>
       </c>
       <c r="L15" s="3">
-        <v>43594417.869999997</v>
+        <v>52541285.379999988</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB5DE9-C189-4398-BC72-AC5B145791A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B9D91-F26D-4B31-811B-8411CA3E3865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.889775115742" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44778.487521759256" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1498,9 +1498,7 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
@@ -1508,7 +1506,7 @@
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -1744,10 +1742,10 @@
         <v>1285676.0800000024</v>
       </c>
       <c r="K7" s="3">
-        <v>1467315.4999999998</v>
+        <v>1466208.4999999998</v>
       </c>
       <c r="L7" s="3">
-        <v>6131852.3800000036</v>
+        <v>6130745.3800000036</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1782,10 +1780,10 @@
         <v>1304299.7499999988</v>
       </c>
       <c r="K8" s="3">
-        <v>4836249.4000000004</v>
+        <v>5826822.4299999997</v>
       </c>
       <c r="L8" s="3">
-        <v>10176164.26</v>
+        <v>11166737.289999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1819,9 +1817,11 @@
       <c r="J9" s="3">
         <v>634206.12000000139</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>899572.98</v>
+      </c>
       <c r="L9" s="3">
-        <v>3112706.3900000011</v>
+        <v>4012279.370000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>14435379.35</v>
       </c>
       <c r="K15" s="3">
-        <v>9215963.1700000055</v>
+        <v>11105002.180000005</v>
       </c>
       <c r="L15" s="3">
-        <v>52541285.379999988</v>
+        <v>54430324.389999963</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B9D91-F26D-4B31-811B-8411CA3E3865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62760474-6D2D-435D-8E15-1997F5C766BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="18" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Persey OLAP.odc" keepAlive="1" name="Persey Travel Документы" type="5" refreshedVersion="7" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\Persey OLAP.odc" keepAlive="1" name="Persey Travel Документы" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\persey;Initial Catalog=Persey Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Доход</t>
   </si>
@@ -121,15 +121,15 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -691,12 +691,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44778.487521759256" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45184.447518981484" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="[Дата].[Год].&amp;[2013]" c="2013"/>
         <s v="[Дата].[Год].&amp;[2014]" c="2014"/>
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
@@ -707,6 +706,7 @@
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
+        <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -725,6 +725,7 @@
         <s v="[Дата].[Месяц].&amp;[12 December]" c="12 December"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="122">
     <cacheHierarchy uniqueName="[IATA офис].[IATA офис]" caption="IATA офис" attribute="1" keyAttribute="1" defaultMemberUniqueName="[IATA офис].[IATA офис].[All]" allUniqueName="[IATA офис].[IATA офис].[All]" dimensionUniqueName="[IATA офис]" displayFolder="" count="0" unbalanced="0"/>
@@ -746,7 +747,7 @@
     <cacheHierarchy uniqueName="[Дата].[Год]" caption="Год" attribute="1" defaultMemberUniqueName="[Дата].[Год].[All]" allUniqueName="[Дата].[Год].[All]" dimensionUniqueName="[Дата]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Дата].[Дата]" caption="Дата" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Дата].[Дата].[All]" allUniqueName="[Дата].[Дата].[All]" dimensionUniqueName="[Дата]" displayFolder="" count="0" unbalanced="0"/>
@@ -755,7 +756,7 @@
     <cacheHierarchy uniqueName="[Дата].[Месяц]" caption="Месяц" attribute="1" defaultMemberUniqueName="[Дата].[Месяц].[All]" allUniqueName="[Дата].[Месяц].[All]" dimensionUniqueName="[Дата]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Дата].[Период]" caption="Период" attribute="1" defaultMemberUniqueName="[Дата].[Период].[All]" allUniqueName="[Дата].[Период].[All]" dimensionUniqueName="[Дата]" displayFolder="" count="0" unbalanced="0"/>
@@ -854,7 +855,7 @@
     <cacheHierarchy uniqueName="[Measures].[К перечислению в АК - USD]" caption="К перечислению в АК - USD" measure="1" displayFolder="" measureGroup="Документы" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Доход]" caption="Доход" measure="1" displayFolder="" measureGroup="Документы" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Доход - EUR]" caption="Доход - EUR" measure="1" displayFolder="" measureGroup="Документы" count="0"/>
@@ -928,12 +929,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:L15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="10">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -944,6 +944,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -962,9 +963,10 @@
         <item x="11"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="13">
     <i>
@@ -1008,9 +1010,9 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </colFields>
-  <colItems count="11">
+  <colItems count="12">
     <i>
       <x/>
     </i>
@@ -1040,13 +1042,16 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="122">
     <pivotHierarchy/>
@@ -1487,32 +1492,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1555,10 +1562,13 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>49934.789999999957</v>
       </c>
       <c r="D3" s="3">
-        <v>91564.05</v>
+        <v>91564.050000000032</v>
       </c>
       <c r="E3" s="3">
         <v>84064.640000000014</v>
@@ -1584,19 +1594,22 @@
         <v>544920.56000000006</v>
       </c>
       <c r="I3" s="3">
-        <v>196253.9499999999</v>
+        <v>196253.94999999995</v>
       </c>
       <c r="J3" s="3">
         <v>227689.24999999994</v>
       </c>
       <c r="K3" s="3">
-        <v>1536273.2600000051</v>
+        <v>1536273.2600000049</v>
       </c>
       <c r="L3" s="3">
-        <v>3228031.6100000055</v>
+        <v>1840375.5100000019</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5068407.1200000066</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1616,10 +1629,10 @@
         <v>270681.23000000004</v>
       </c>
       <c r="G4" s="3">
-        <v>129282.51000000004</v>
+        <v>129282.51000000005</v>
       </c>
       <c r="H4" s="3">
-        <v>135337.15000000002</v>
+        <v>135337.15</v>
       </c>
       <c r="I4" s="3">
         <v>153504.30999999994</v>
@@ -1628,13 +1641,16 @@
         <v>271762.71999999962</v>
       </c>
       <c r="K4" s="3">
-        <v>937540.26999999967</v>
+        <v>973875.2999999997</v>
       </c>
       <c r="L4" s="3">
-        <v>2744916.3599999989</v>
+        <v>192960.88000000024</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2974212.2699999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1651,39 +1667,42 @@
         <v>823402.94999999937</v>
       </c>
       <c r="F5" s="3">
-        <v>563285.60000000021</v>
+        <v>563285.60000000009</v>
       </c>
       <c r="G5" s="3">
         <v>205767.56000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>278014.27</v>
+        <v>278014.26999999996</v>
       </c>
       <c r="I5" s="3">
         <v>93385.04</v>
       </c>
       <c r="J5" s="3">
-        <v>351860.5099999996</v>
+        <v>351860.50999999954</v>
       </c>
       <c r="K5" s="3">
-        <v>51225.56</v>
+        <v>53475.560000000012</v>
       </c>
       <c r="L5" s="3">
-        <v>3818550.1999999988</v>
+        <v>193851.8499999998</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4014652.0499999984</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>195097.98999999985</v>
+        <v>195097.98999999982</v>
       </c>
       <c r="C6" s="3">
         <v>258151.96000000017</v>
       </c>
       <c r="D6" s="3">
-        <v>1108749.3600000006</v>
+        <v>1108749.3600000003</v>
       </c>
       <c r="E6" s="3">
         <v>1047603.2300000001</v>
@@ -1692,7 +1711,7 @@
         <v>523927.09999999969</v>
       </c>
       <c r="G6" s="3">
-        <v>371096.95000000013</v>
+        <v>371096.95</v>
       </c>
       <c r="H6" s="3">
         <v>346176.41999999958</v>
@@ -1701,16 +1720,19 @@
         <v>1864.8</v>
       </c>
       <c r="J6" s="3">
-        <v>838579.85000000102</v>
+        <v>838579.85000000114</v>
       </c>
       <c r="K6" s="3">
-        <v>387359.18000000017</v>
+        <v>386234.18000000017</v>
       </c>
       <c r="L6" s="3">
-        <v>5078606.8400000008</v>
+        <v>-501165.68000000005</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4576316.16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1730,25 +1752,28 @@
         <v>274719.11000000016</v>
       </c>
       <c r="G7" s="3">
-        <v>322582.03000000003</v>
+        <v>322582.03000000009</v>
       </c>
       <c r="H7" s="3">
-        <v>1375577.6900000006</v>
+        <v>1375577.6900000004</v>
       </c>
       <c r="I7" s="3">
         <v>1340.79</v>
       </c>
       <c r="J7" s="3">
-        <v>1285676.0800000024</v>
+        <v>1285676.0800000026</v>
       </c>
       <c r="K7" s="3">
-        <v>1466208.4999999998</v>
+        <v>1464208.4999999998</v>
       </c>
       <c r="L7" s="3">
-        <v>6130745.3800000036</v>
+        <v>-1801214.6699999995</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4327530.7100000046</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1762,13 +1787,13 @@
         <v>178101.42000000004</v>
       </c>
       <c r="E8" s="3">
-        <v>1071654.5499999998</v>
+        <v>1071654.5500000005</v>
       </c>
       <c r="F8" s="3">
-        <v>258404</v>
+        <v>258404.00000000003</v>
       </c>
       <c r="G8" s="3">
-        <v>1168672.6400000001</v>
+        <v>1168672.6400000004</v>
       </c>
       <c r="H8" s="3">
         <v>1205560.3400000001</v>
@@ -1777,16 +1802,19 @@
         <v>5951.23</v>
       </c>
       <c r="J8" s="3">
-        <v>1304299.7499999988</v>
+        <v>1304299.7499999995</v>
       </c>
       <c r="K8" s="3">
-        <v>5826822.4299999997</v>
+        <v>5808761.4299999997</v>
       </c>
       <c r="L8" s="3">
-        <v>11166737.289999999</v>
+        <v>1252653.6799999997</v>
+      </c>
+      <c r="M8" s="3">
+        <v>12401329.970000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1800,31 +1828,34 @@
         <v>210044.29</v>
       </c>
       <c r="E9" s="3">
-        <v>314220.75000000012</v>
+        <v>314220.75</v>
       </c>
       <c r="F9" s="3">
         <v>418302.57999999984</v>
       </c>
       <c r="G9" s="3">
-        <v>777207.48</v>
+        <v>777207.4800000001</v>
       </c>
       <c r="H9" s="3">
         <v>445976.36999999976</v>
       </c>
       <c r="I9" s="3">
-        <v>89928.069999999934</v>
+        <v>89928.069999999949</v>
       </c>
       <c r="J9" s="3">
         <v>634206.12000000139</v>
       </c>
       <c r="K9" s="3">
-        <v>899572.98</v>
+        <v>3566028.870000002</v>
       </c>
       <c r="L9" s="3">
-        <v>4012279.370000001</v>
+        <v>-834131.07000000018</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5844604.1900000032</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1835,19 +1866,19 @@
         <v>122603.32000000007</v>
       </c>
       <c r="D10" s="3">
-        <v>156673.84999999995</v>
+        <v>156673.84999999998</v>
       </c>
       <c r="E10" s="3">
-        <v>239254.44</v>
+        <v>239254.44000000006</v>
       </c>
       <c r="F10" s="3">
-        <v>216505.58</v>
+        <v>216505.57999999996</v>
       </c>
       <c r="G10" s="3">
-        <v>622427.9700000002</v>
+        <v>622427.97000000009</v>
       </c>
       <c r="H10" s="3">
-        <v>292562.42999999976</v>
+        <v>292562.42999999993</v>
       </c>
       <c r="I10" s="3">
         <v>177390.56999999957</v>
@@ -1855,12 +1886,17 @@
       <c r="J10" s="3">
         <v>1605315.1999999995</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>1983760.9899999998</v>
+      </c>
       <c r="L10" s="3">
-        <v>3509766.899999999</v>
+        <v>-1456761.0000000002</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4036766.8899999992</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1871,16 +1907,16 @@
         <v>92466.73000000004</v>
       </c>
       <c r="D11" s="3">
-        <v>83284.61</v>
+        <v>83284.609999999986</v>
       </c>
       <c r="E11" s="3">
         <v>131699.66999999998</v>
       </c>
       <c r="F11" s="3">
-        <v>183392.03000000003</v>
+        <v>183392.03000000006</v>
       </c>
       <c r="G11" s="3">
-        <v>426835.54000000004</v>
+        <v>426835.5400000001</v>
       </c>
       <c r="H11" s="3">
         <v>347716.83999999991</v>
@@ -1889,14 +1925,19 @@
         <v>89687.4</v>
       </c>
       <c r="J11" s="3">
-        <v>2059083.27</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>2078226.27</v>
+      </c>
+      <c r="K11" s="3">
+        <v>980364.89999999967</v>
+      </c>
       <c r="L11" s="3">
-        <v>3510059.0399999996</v>
+        <v>-1230176.0900000003</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3279390.8499999992</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +1948,7 @@
         <v>101931.33000000005</v>
       </c>
       <c r="D12" s="3">
-        <v>102897.91000000002</v>
+        <v>102897.91000000003</v>
       </c>
       <c r="E12" s="3">
         <v>91287.86</v>
@@ -1922,17 +1963,20 @@
         <v>342398.2099999999</v>
       </c>
       <c r="I12" s="3">
-        <v>255370.49999999997</v>
+        <v>255370.50000000003</v>
       </c>
       <c r="J12" s="3">
         <v>2530450.1399999987</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>3954646.169999999</v>
+      <c r="K12" s="3">
+        <v>822733.17</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>4777379.3399999989</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1949,13 +1993,13 @@
         <v>286890.18999999994</v>
       </c>
       <c r="F13" s="3">
-        <v>133719.32999999996</v>
+        <v>133719.32999999999</v>
       </c>
       <c r="G13" s="3">
-        <v>139990.25</v>
+        <v>139990.24999999997</v>
       </c>
       <c r="H13" s="3">
-        <v>116878.38999999994</v>
+        <v>116878.38999999997</v>
       </c>
       <c r="I13" s="3">
         <v>258447.47000000009</v>
@@ -1963,12 +2007,15 @@
       <c r="J13" s="3">
         <v>1617493.3800000006</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>2787821.4200000009</v>
+      <c r="K13" s="3">
+        <v>878232.13000000035</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>3666053.5500000012</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1979,13 +2026,13 @@
         <v>111601.03999999996</v>
       </c>
       <c r="D14" s="3">
-        <v>67671.049999999974</v>
+        <v>67671.049999999988</v>
       </c>
       <c r="E14" s="3">
-        <v>315435.71000000008</v>
+        <v>315435.71000000002</v>
       </c>
       <c r="F14" s="3">
-        <v>223532.76999999996</v>
+        <v>223532.7699999999</v>
       </c>
       <c r="G14" s="3">
         <v>639836.21</v>
@@ -1997,52 +2044,58 @@
         <v>501668.53</v>
       </c>
       <c r="J14" s="3">
-        <v>1708963.0799999996</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>4488163.8099999996</v>
+        <v>1708963.080000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-1487870.84</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <v>3000292.9700000007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>952530.68999999983</v>
+        <v>952530.69</v>
       </c>
       <c r="C15" s="3">
         <v>1640392.67</v>
       </c>
       <c r="D15" s="3">
-        <v>4127277.2600000002</v>
+        <v>4127277.2600000007</v>
       </c>
       <c r="E15" s="3">
-        <v>5274287.5399999991</v>
+        <v>5274287.54</v>
       </c>
       <c r="F15" s="3">
-        <v>3434459.3699999992</v>
+        <v>3434459.37</v>
       </c>
       <c r="G15" s="3">
         <v>5353855.6100000003</v>
       </c>
       <c r="H15" s="3">
-        <v>6282347.0599999987</v>
+        <v>6282347.0600000005</v>
       </c>
       <c r="I15" s="3">
-        <v>1824792.6599999995</v>
+        <v>1824792.6599999997</v>
       </c>
       <c r="J15" s="3">
-        <v>14435379.35</v>
+        <v>14454522.350000003</v>
       </c>
       <c r="K15" s="3">
-        <v>11105002.180000005</v>
+        <v>16966077.450000007</v>
       </c>
       <c r="L15" s="3">
-        <v>54430324.389999963</v>
+        <v>-2343606.5899999989</v>
+      </c>
+      <c r="M15" s="3">
+        <v>57966936.069999985</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I19">
         <f>255/380</f>
         <v>0.67105263157894735</v>

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62760474-6D2D-435D-8E15-1997F5C766BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0579834-8A03-4F6D-9A92-38E9CCC1DCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45184.447518981484" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45222.467121759262" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1051,7 +1051,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <pivotHierarchies count="122">
     <pivotHierarchy/>
@@ -1494,32 +1494,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>5068407.1200000066</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>2974212.2699999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>4014652.0499999984</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>4576316.16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1767,13 +1768,13 @@
         <v>1464208.4999999998</v>
       </c>
       <c r="L7" s="3">
-        <v>-1801214.6699999995</v>
+        <v>-1801304.6699999995</v>
       </c>
       <c r="M7" s="3">
-        <v>4327530.7100000046</v>
+        <v>4327440.7100000046</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1808,13 +1809,13 @@
         <v>5808761.4299999997</v>
       </c>
       <c r="L8" s="3">
-        <v>1252653.6799999997</v>
+        <v>1255598.6799999997</v>
       </c>
       <c r="M8" s="3">
-        <v>12401329.970000001</v>
+        <v>12404274.970000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1849,13 +1850,13 @@
         <v>3566028.870000002</v>
       </c>
       <c r="L9" s="3">
-        <v>-834131.07000000018</v>
+        <v>-833700.27000000014</v>
       </c>
       <c r="M9" s="3">
-        <v>5844604.1900000032</v>
+        <v>5845034.990000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1890,13 +1891,13 @@
         <v>1983760.9899999998</v>
       </c>
       <c r="L10" s="3">
-        <v>-1456761.0000000002</v>
+        <v>-1456810.0000000002</v>
       </c>
       <c r="M10" s="3">
-        <v>4036766.8899999992</v>
+        <v>4036717.8899999992</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1931,13 +1932,13 @@
         <v>980364.89999999967</v>
       </c>
       <c r="L11" s="3">
-        <v>-1230176.0900000003</v>
+        <v>-1800648.1700000018</v>
       </c>
       <c r="M11" s="3">
-        <v>3279390.8499999992</v>
+        <v>2708918.7699999977</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1971,12 +1972,14 @@
       <c r="K12" s="3">
         <v>822733.17</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>-2599616.21</v>
+      </c>
       <c r="M12" s="3">
-        <v>4777379.3399999989</v>
+        <v>2177763.129999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>3666053.5500000012</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>3000292.9700000007</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>1640392.67</v>
       </c>
       <c r="D15" s="3">
-        <v>4127277.2600000007</v>
+        <v>4127277.2600000002</v>
       </c>
       <c r="E15" s="3">
         <v>5274287.54</v>
@@ -2089,13 +2092,13 @@
         <v>16966077.450000007</v>
       </c>
       <c r="L15" s="3">
-        <v>-2343606.5899999989</v>
+        <v>-5510458.0800000001</v>
       </c>
       <c r="M15" s="3">
-        <v>57966936.069999985</v>
+        <v>54800084.579999998</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19">
         <f>255/380</f>
         <v>0.67105263157894735</v>

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0579834-8A03-4F6D-9A92-38E9CCC1DCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C563A68-079C-4689-B1D1-8F5EB3A27EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="52" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Доход</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -691,11 +694,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45222.467121759262" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45357.388007407404" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="11">
+      <sharedItems count="12">
         <s v="[Дата].[Год].&amp;[2013]" c="2013"/>
         <s v="[Дата].[Год].&amp;[2014]" c="2014"/>
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
@@ -707,6 +710,7 @@
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
+        <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -929,11 +933,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="11">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -945,6 +949,7 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1012,7 +1017,7 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="12">
+  <colItems count="13">
     <i>
       <x/>
     </i>
@@ -1045,6 +1050,9 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -1196,9 +1204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1236,7 +1244,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1342,7 +1350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1484,7 +1492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,35 +1500,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1566,10 +1576,13 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1604,13 +1617,16 @@
         <v>1536273.2600000049</v>
       </c>
       <c r="L3" s="3">
-        <v>1840375.5100000019</v>
+        <v>1840375.5100000021</v>
       </c>
       <c r="M3" s="3">
-        <v>5068407.1200000066</v>
+        <v>-1642766.7400000005</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3425640.3800000069</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1642,16 +1658,19 @@
         <v>271762.71999999962</v>
       </c>
       <c r="K4" s="3">
-        <v>973875.2999999997</v>
+        <v>973875.29999999993</v>
       </c>
       <c r="L4" s="3">
         <v>192960.88000000024</v>
       </c>
       <c r="M4" s="3">
-        <v>2974212.2699999996</v>
+        <v>-2841026.7699999982</v>
+      </c>
+      <c r="N4" s="3">
+        <v>133185.50000000201</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1689,10 +1708,13 @@
         <v>193851.8499999998</v>
       </c>
       <c r="M5" s="3">
-        <v>4014652.0499999984</v>
+        <v>-556356.53</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3458295.5199999986</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>1047603.2300000001</v>
       </c>
       <c r="F6" s="3">
-        <v>523927.09999999969</v>
+        <v>523927.09999999974</v>
       </c>
       <c r="G6" s="3">
         <v>371096.95</v>
@@ -1727,13 +1749,14 @@
         <v>386234.18000000017</v>
       </c>
       <c r="L6" s="3">
-        <v>-501165.68000000005</v>
-      </c>
-      <c r="M6" s="3">
+        <v>-501165.68000000017</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>4576316.16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1768,13 +1791,14 @@
         <v>1464208.4999999998</v>
       </c>
       <c r="L7" s="3">
-        <v>-1801304.6699999995</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4327440.7100000046</v>
+        <v>-1800197.6699999995</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>4328547.7100000046</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1788,13 +1812,13 @@
         <v>178101.42000000004</v>
       </c>
       <c r="E8" s="3">
-        <v>1071654.5500000005</v>
+        <v>1071654.5500000007</v>
       </c>
       <c r="F8" s="3">
         <v>258404.00000000003</v>
       </c>
       <c r="G8" s="3">
-        <v>1168672.6400000004</v>
+        <v>1168672.6400000006</v>
       </c>
       <c r="H8" s="3">
         <v>1205560.3400000001</v>
@@ -1809,13 +1833,14 @@
         <v>5808761.4299999997</v>
       </c>
       <c r="L8" s="3">
-        <v>1255598.6799999997</v>
-      </c>
-      <c r="M8" s="3">
-        <v>12404274.970000001</v>
+        <v>1252043.6799999997</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>12400719.970000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1829,7 +1854,7 @@
         <v>210044.29</v>
       </c>
       <c r="E9" s="3">
-        <v>314220.75</v>
+        <v>314220.74999999994</v>
       </c>
       <c r="F9" s="3">
         <v>418302.57999999984</v>
@@ -1841,7 +1866,7 @@
         <v>445976.36999999976</v>
       </c>
       <c r="I9" s="3">
-        <v>89928.069999999949</v>
+        <v>89928.069999999963</v>
       </c>
       <c r="J9" s="3">
         <v>634206.12000000139</v>
@@ -1852,11 +1877,12 @@
       <c r="L9" s="3">
         <v>-833700.27000000014</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>5845034.990000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1899,7 @@
         <v>239254.44000000006</v>
       </c>
       <c r="F10" s="3">
-        <v>216505.57999999996</v>
+        <v>216505.58000000002</v>
       </c>
       <c r="G10" s="3">
         <v>622427.97000000009</v>
@@ -1891,13 +1917,14 @@
         <v>1983760.9899999998</v>
       </c>
       <c r="L10" s="3">
-        <v>-1456810.0000000002</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4036717.8899999992</v>
+        <v>-1433656.0000000002</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>4059871.8899999992</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1932,13 +1959,14 @@
         <v>980364.89999999967</v>
       </c>
       <c r="L11" s="3">
-        <v>-1800648.1700000018</v>
-      </c>
-      <c r="M11" s="3">
-        <v>2708918.7699999977</v>
+        <v>-1790016.1700000018</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>2719550.7699999977</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +1992,7 @@
         <v>342398.2099999999</v>
       </c>
       <c r="I12" s="3">
-        <v>255370.50000000003</v>
+        <v>255370.5</v>
       </c>
       <c r="J12" s="3">
         <v>2530450.1399999987</v>
@@ -1973,13 +2001,14 @@
         <v>822733.17</v>
       </c>
       <c r="L12" s="3">
-        <v>-2599616.21</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2177763.129999999</v>
+        <v>-3754187.3499999992</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>1023191.9899999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1993,13 +2022,13 @@
         <v>72718.709999999992</v>
       </c>
       <c r="E13" s="3">
-        <v>286890.18999999994</v>
+        <v>286890.19</v>
       </c>
       <c r="F13" s="3">
         <v>133719.32999999999</v>
       </c>
       <c r="G13" s="3">
-        <v>139990.24999999997</v>
+        <v>139990.25</v>
       </c>
       <c r="H13" s="3">
         <v>116878.38999999997</v>
@@ -2008,17 +2037,20 @@
         <v>258447.47000000009</v>
       </c>
       <c r="J13" s="3">
-        <v>1617493.3800000006</v>
+        <v>1617593.3800000006</v>
       </c>
       <c r="K13" s="3">
         <v>878232.13000000035</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3">
-        <v>3666053.5500000012</v>
+      <c r="L13" s="3">
+        <v>-3925305.2700000033</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>-259151.72000000163</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2032,10 +2064,10 @@
         <v>67671.049999999988</v>
       </c>
       <c r="E14" s="3">
-        <v>315435.71000000002</v>
+        <v>315435.7099999999</v>
       </c>
       <c r="F14" s="3">
-        <v>223532.7699999999</v>
+        <v>223532.76999999996</v>
       </c>
       <c r="G14" s="3">
         <v>639836.21</v>
@@ -2044,7 +2076,7 @@
         <v>851228.39</v>
       </c>
       <c r="I14" s="3">
-        <v>501668.53</v>
+        <v>501668.52999999997</v>
       </c>
       <c r="J14" s="3">
         <v>1708963.080000001</v>
@@ -2052,12 +2084,15 @@
       <c r="K14" s="3">
         <v>-1487870.84</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <v>3000292.9700000007</v>
+      <c r="L14" s="3">
+        <v>-2598390.9500000002</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>401902.02000000066</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2086,19 +2121,22 @@
         <v>1824792.6599999997</v>
       </c>
       <c r="J15" s="3">
-        <v>14454522.350000003</v>
+        <v>14454622.350000001</v>
       </c>
       <c r="K15" s="3">
         <v>16966077.450000007</v>
       </c>
       <c r="L15" s="3">
-        <v>-5510458.0800000001</v>
+        <v>-13157387.440000003</v>
       </c>
       <c r="M15" s="3">
-        <v>54800084.579999998</v>
+        <v>-5040150.0399999991</v>
+      </c>
+      <c r="N15" s="3">
+        <v>42113105.179999977</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I19">
         <f>255/380</f>
         <v>0.67105263157894735</v>

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C563A68-079C-4689-B1D1-8F5EB3A27EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E292CF2F-7631-4CEA-842C-FDFDB947950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45357.388007407404" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.344778240738" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1506,31 +1506,31 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1620,13 +1620,13 @@
         <v>1840375.5100000021</v>
       </c>
       <c r="M3" s="3">
-        <v>-1642766.7400000005</v>
+        <v>-1648930.3300000005</v>
       </c>
       <c r="N3" s="3">
-        <v>3425640.3800000069</v>
+        <v>3419476.7900000066</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1664,13 +1664,13 @@
         <v>192960.88000000024</v>
       </c>
       <c r="M4" s="3">
-        <v>-2841026.7699999982</v>
+        <v>-2845524.5199999977</v>
       </c>
       <c r="N4" s="3">
-        <v>133185.50000000201</v>
+        <v>128687.75000000247</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1708,13 +1708,13 @@
         <v>193851.8499999998</v>
       </c>
       <c r="M5" s="3">
-        <v>-556356.53</v>
+        <v>-2027233.8500000008</v>
       </c>
       <c r="N5" s="3">
-        <v>3458295.5199999986</v>
+        <v>1987418.1999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>4576316.16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>4328547.7100000046</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>12400719.970000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>5845034.990000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>4059871.8899999992</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2719550.7699999977</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1023191.9899999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>-259151.72000000163</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>401902.02000000066</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2130,13 +2130,13 @@
         <v>-13157387.440000003</v>
       </c>
       <c r="M15" s="3">
-        <v>-5040150.0399999991</v>
+        <v>-6521688.6999999983</v>
       </c>
       <c r="N15" s="3">
-        <v>42113105.179999977</v>
+        <v>40631566.519999981</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I19">
         <f>255/380</f>
         <v>0.67105263157894735</v>

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E292CF2F-7631-4CEA-842C-FDFDB947950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BBEB2A-CAE0-489B-9270-8DA362F80908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.344778240738" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45464.486938310183" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
@@ -933,7 +933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1506,31 +1506,30 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1620,13 +1619,13 @@
         <v>1840375.5100000021</v>
       </c>
       <c r="M3" s="3">
-        <v>-1648930.3300000005</v>
+        <v>-1709999.2900000003</v>
       </c>
       <c r="N3" s="3">
-        <v>3419476.7900000066</v>
+        <v>3358407.8300000071</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1661,16 +1660,16 @@
         <v>973875.29999999993</v>
       </c>
       <c r="L4" s="3">
-        <v>192960.88000000024</v>
+        <v>192960.88000000035</v>
       </c>
       <c r="M4" s="3">
-        <v>-2845524.5199999977</v>
+        <v>-2845360.5199999982</v>
       </c>
       <c r="N4" s="3">
-        <v>128687.75000000247</v>
+        <v>128851.75000000201</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1708,13 +1707,13 @@
         <v>193851.8499999998</v>
       </c>
       <c r="M5" s="3">
-        <v>-2027233.8500000008</v>
+        <v>-3979149.5599999963</v>
       </c>
       <c r="N5" s="3">
-        <v>1987418.1999999979</v>
+        <v>35502.490000002261</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1751,12 +1750,14 @@
       <c r="L6" s="3">
         <v>-501165.68000000017</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>-1544618.1300000024</v>
+      </c>
       <c r="N6" s="3">
-        <v>4576316.16</v>
+        <v>3031698.0299999975</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1791,14 +1792,16 @@
         <v>1464208.4999999998</v>
       </c>
       <c r="L7" s="3">
-        <v>-1800197.6699999995</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>-1800197.67</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-2926463.3699999987</v>
+      </c>
       <c r="N7" s="3">
-        <v>4328547.7100000046</v>
+        <v>1402084.3400000047</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1835,12 +1838,14 @@
       <c r="L8" s="3">
         <v>1252043.6799999997</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>-1049212.5600000003</v>
+      </c>
       <c r="N8" s="3">
-        <v>12400719.970000001</v>
+        <v>11351507.41</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>5845034.990000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1921,10 +1926,10 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3">
-        <v>4059871.8899999992</v>
+        <v>4059871.8899999987</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1966,7 +1971,7 @@
         <v>2719550.7699999977</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>1023191.9899999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>-259151.72000000163</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>401902.02000000066</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2130,13 +2135,13 @@
         <v>-13157387.440000003</v>
       </c>
       <c r="M15" s="3">
-        <v>-6521688.6999999983</v>
+        <v>-14054803.429999998</v>
       </c>
       <c r="N15" s="3">
-        <v>40631566.519999981</v>
+        <v>33098451.789999973</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I19">
         <f>255/380</f>
         <v>0.67105263157894735</v>

--- a/src/OLAP/DataSources/Persey.Profit.xlsx
+++ b/src/OLAP/DataSources/Persey.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BBEB2A-CAE0-489B-9270-8DA362F80908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E7F4C0-DE1D-42D2-B24B-D5E94B3C0BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persey OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Доход</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -694,11 +697,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45464.486938310183" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="nestor" refreshedDate="45667.812948842591" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="12">
+      <sharedItems count="13">
         <s v="[Дата].[Год].&amp;[2013]" c="2013"/>
         <s v="[Дата].[Год].&amp;[2014]" c="2014"/>
         <s v="[Дата].[Год].&amp;[2015]" c="2015"/>
@@ -711,6 +714,7 @@
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
         <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
+        <s v="[Дата].[Год].&amp;[2025]" c="2025"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -933,11 +937,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:O15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="12">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -950,6 +954,7 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
+        <item x="12"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1017,7 +1022,7 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="13">
+  <colItems count="14">
     <i>
       <x/>
     </i>
@@ -1053,6 +1058,9 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -1500,36 +1508,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1578,10 +1588,13 @@
         <v>27</v>
       </c>
       <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>227689.24999999994</v>
       </c>
       <c r="K3" s="3">
-        <v>1536273.2600000049</v>
+        <v>1536273.2600000054</v>
       </c>
       <c r="L3" s="3">
         <v>1840375.5100000021</v>
@@ -1622,10 +1635,13 @@
         <v>-1709999.2900000003</v>
       </c>
       <c r="N3" s="3">
-        <v>3358407.8300000071</v>
+        <v>392058.23999999993</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3750466.0700000068</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1660,16 +1676,17 @@
         <v>973875.29999999993</v>
       </c>
       <c r="L4" s="3">
-        <v>192960.88000000035</v>
+        <v>192960.88000000021</v>
       </c>
       <c r="M4" s="3">
         <v>-2845360.5199999982</v>
       </c>
-      <c r="N4" s="3">
-        <v>128851.75000000201</v>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>128851.75000000154</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1695,7 +1712,7 @@
         <v>278014.26999999996</v>
       </c>
       <c r="I5" s="3">
-        <v>93385.04</v>
+        <v>93385.040000000023</v>
       </c>
       <c r="J5" s="3">
         <v>351860.50999999954</v>
@@ -1704,16 +1721,17 @@
         <v>53475.560000000012</v>
       </c>
       <c r="L5" s="3">
-        <v>193851.8499999998</v>
+        <v>193851.84999999986</v>
       </c>
       <c r="M5" s="3">
-        <v>-3979149.5599999963</v>
-      </c>
-      <c r="N5" s="3">
-        <v>35502.490000002261</v>
+        <v>-3980730.5599999973</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>33921.490000000864</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>523927.09999999974</v>
       </c>
       <c r="G6" s="3">
-        <v>371096.95</v>
+        <v>371496.95</v>
       </c>
       <c r="H6" s="3">
         <v>346176.41999999958</v>
@@ -1748,16 +1766,17 @@
         <v>386234.18000000017</v>
       </c>
       <c r="L6" s="3">
-        <v>-501165.68000000017</v>
+        <v>-501165.68000000011</v>
       </c>
       <c r="M6" s="3">
-        <v>-1544618.1300000024</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3031698.0299999975</v>
+        <v>-1544618.1300000022</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>3032098.0299999979</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +1793,7 @@
         <v>617783.66000000015</v>
       </c>
       <c r="F7" s="3">
-        <v>274719.11000000016</v>
+        <v>274719.1100000001</v>
       </c>
       <c r="G7" s="3">
         <v>322582.03000000009</v>
@@ -1795,13 +1814,14 @@
         <v>-1800197.67</v>
       </c>
       <c r="M7" s="3">
-        <v>-2926463.3699999987</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1402084.3400000047</v>
+        <v>-2935906.3699999982</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>1392641.3400000052</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1850,7 @@
         <v>5951.23</v>
       </c>
       <c r="J8" s="3">
-        <v>1304299.7499999995</v>
+        <v>1304299.7499999988</v>
       </c>
       <c r="K8" s="3">
         <v>5808761.4299999997</v>
@@ -1839,13 +1859,14 @@
         <v>1252043.6799999997</v>
       </c>
       <c r="M8" s="3">
-        <v>-1049212.5600000003</v>
-      </c>
-      <c r="N8" s="3">
-        <v>11351507.41</v>
+        <v>-1803365.5800000015</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>10597354.389999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1865,7 +1886,7 @@
         <v>418302.57999999984</v>
       </c>
       <c r="G9" s="3">
-        <v>777207.4800000001</v>
+        <v>777568.48</v>
       </c>
       <c r="H9" s="3">
         <v>445976.36999999976</v>
@@ -1882,12 +1903,15 @@
       <c r="L9" s="3">
         <v>-833700.27000000014</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
-        <v>5845034.990000003</v>
+      <c r="M9" s="3">
+        <v>-2711654.6499999925</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>3133741.3400000101</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1924,12 +1948,15 @@
       <c r="L10" s="3">
         <v>-1433656.0000000002</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
-        <v>4059871.8899999987</v>
+      <c r="M10" s="3">
+        <v>-579153.98999999987</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>3480717.8999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1943,7 +1970,7 @@
         <v>83284.609999999986</v>
       </c>
       <c r="E11" s="3">
-        <v>131699.66999999998</v>
+        <v>131699.67000000001</v>
       </c>
       <c r="F11" s="3">
         <v>183392.03000000006</v>
@@ -1958,7 +1985,7 @@
         <v>89687.4</v>
       </c>
       <c r="J11" s="3">
-        <v>2078226.27</v>
+        <v>2078226.2699999996</v>
       </c>
       <c r="K11" s="3">
         <v>980364.89999999967</v>
@@ -1966,12 +1993,15 @@
       <c r="L11" s="3">
         <v>-1790016.1700000018</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <v>2719550.7699999977</v>
+      <c r="M11" s="3">
+        <v>797877.18999999948</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>3517427.9599999976</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2000,7 +2030,7 @@
         <v>255370.5</v>
       </c>
       <c r="J12" s="3">
-        <v>2530450.1399999987</v>
+        <v>2530450.1399999992</v>
       </c>
       <c r="K12" s="3">
         <v>822733.17</v>
@@ -2008,12 +2038,15 @@
       <c r="L12" s="3">
         <v>-3754187.3499999992</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3">
-        <v>1023191.9899999998</v>
+      <c r="M12" s="3">
+        <v>1060681.9899999998</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>2083873.98</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2039,10 +2072,10 @@
         <v>116878.38999999997</v>
       </c>
       <c r="I13" s="3">
-        <v>258447.47000000009</v>
+        <v>258547.47000000009</v>
       </c>
       <c r="J13" s="3">
-        <v>1617593.3800000006</v>
+        <v>1617593.3800000001</v>
       </c>
       <c r="K13" s="3">
         <v>878232.13000000035</v>
@@ -2050,12 +2083,15 @@
       <c r="L13" s="3">
         <v>-3925305.2700000033</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3">
-        <v>-259151.72000000163</v>
+      <c r="M13" s="3">
+        <v>375331.75</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>116280.02999999747</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2090,19 +2126,22 @@
         <v>-1487870.84</v>
       </c>
       <c r="L14" s="3">
-        <v>-2598390.9500000002</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3">
-        <v>401902.02000000066</v>
+        <v>-2623223.9500000002</v>
+      </c>
+      <c r="M14" s="3">
+        <v>725856.97000000009</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>1102925.9900000009</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>952530.69</v>
+        <v>952530.68999999983</v>
       </c>
       <c r="C15" s="3">
         <v>1640392.67</v>
@@ -2117,31 +2156,34 @@
         <v>3434459.37</v>
       </c>
       <c r="G15" s="3">
-        <v>5353855.6100000003</v>
+        <v>5354616.6100000003</v>
       </c>
       <c r="H15" s="3">
         <v>6282347.0600000005</v>
       </c>
       <c r="I15" s="3">
-        <v>1824792.6599999997</v>
+        <v>1824892.6599999997</v>
       </c>
       <c r="J15" s="3">
         <v>14454622.350000001</v>
       </c>
       <c r="K15" s="3">
-        <v>16966077.450000007</v>
+        <v>16966077.45000001</v>
       </c>
       <c r="L15" s="3">
-        <v>-13157387.440000003</v>
+        <v>-13182220.440000003</v>
       </c>
       <c r="M15" s="3">
-        <v>-14054803.429999998</v>
+        <v>-15151041.189999992</v>
       </c>
       <c r="N15" s="3">
-        <v>33098451.789999973</v>
+        <v>392058.23999999993</v>
+      </c>
+      <c r="O15" s="3">
+        <v>32370300.269999444</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19">
         <f>255/380</f>
         <v>0.67105263157894735</v>
